--- a/testfiles/Quotes/Sample Master Working File.xlsx
+++ b/testfiles/Quotes/Sample Master Working File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SRX\plm\testfiles\Quotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BEDE2C-DD84-4AFD-ABC9-F5DE14993FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7A61FE-1455-4FBA-86A4-AD5989040257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="1095" windowWidth="22200" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1875" windowWidth="23325" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
   <si>
     <t>System Unique ID</t>
   </si>
@@ -414,6 +414,12 @@
   </si>
   <si>
     <t>(RoHS) (Y/N)</t>
+  </si>
+  <si>
+    <t>A remark</t>
+  </si>
+  <si>
+    <t>RFQ Failed</t>
   </si>
 </sst>
 </file>
@@ -954,10 +960,10 @@
   <dimension ref="A1:AN8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI1" sqref="AI1"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1158,9 +1164,11 @@
         <v>1</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="R2" s="23">
         <f>(IF(Z2&gt;=H2,Z2,CEILING(H2,X2)))*AA2</f>
         <v>79.8</v>
@@ -1267,7 +1275,7 @@
         <v>72</v>
       </c>
       <c r="O3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>40</v>
@@ -1379,12 +1387,14 @@
         <v>72</v>
       </c>
       <c r="O4" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="R4" s="23">
         <f>(IF(Z4&gt;=H4,Z4,CEILING(H4,X4)))*AA4</f>
         <v>593.6</v>
